--- a/icreditstudio-frontend/public/static/字典表导入模板.xlsx
+++ b/icreditstudio-frontend/public/static/字典表导入模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,49 +35,6 @@
   </si>
   <si>
     <t>REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是黄色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是绿色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是蓝色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是红色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,14 +90,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,17 +377,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="2" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="21.25" style="2" customWidth="1" phonetic="1"/>
-    <col min="3" max="3" width="27.5" style="2" customWidth="1" phonetic="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1" phonetic="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1" phonetic="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1" phonetic="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -447,50 +401,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s" ph="1">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s" ph="1">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s" ph="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s" ph="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s" ph="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s" ph="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s" ph="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s" ph="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s" ph="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s" ph="1">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s" ph="1">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s" ph="1">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/icreditstudio-frontend/public/static/字典表导入模板.xlsx
+++ b/icreditstudio-frontend/public/static/字典表导入模板.xlsx
@@ -26,15 +26,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>KEY</t>
+    <t>REMARK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VALUE</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KEY</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REMARK</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VALUE</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -42,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +108,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -90,11 +145,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,29 +438,39 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1" phonetic="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1" phonetic="1"/>
+    <col min="1" max="1" width="25.5" style="2" customWidth="1" phonetic="1"/>
+    <col min="2" max="2" width="21.25" style="2" customWidth="1" phonetic="1"/>
+    <col min="3" max="3" width="27.5" style="2" customWidth="1" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s" ph="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s" ph="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="提示" error="value 不能为空" sqref="B1 B3:B1048576"/>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="提示" error="KEY 不能为空" sqref="A2">
+      <formula1>OR($A$2&lt;&gt;"")</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="提示" error="VALUE 不能为空" sqref="B2">
+      <formula1>OR($B$2&lt;&gt;"")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>